--- a/SchedulingData/static5/pso/scheduling1_16.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_16.xlsx
@@ -466,36 +466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>61.52</v>
       </c>
       <c r="E2" t="n">
-        <v>24.9</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>67.45999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="E3" t="n">
-        <v>25.424</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="4">
@@ -504,188 +504,188 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>61.52</v>
       </c>
       <c r="D4" t="n">
-        <v>112.04</v>
+        <v>123.48</v>
       </c>
       <c r="E4" t="n">
-        <v>20.636</v>
+        <v>22.932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112.04</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>180.84</v>
+        <v>45.72</v>
       </c>
       <c r="E5" t="n">
-        <v>17.336</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>45.72</v>
+        <v>73.8</v>
       </c>
       <c r="E6" t="n">
-        <v>26.128</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>123.48</v>
       </c>
       <c r="D7" t="n">
-        <v>59.36</v>
+        <v>188.98</v>
       </c>
       <c r="E7" t="n">
-        <v>26.724</v>
+        <v>20.012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>188.98</v>
       </c>
       <c r="D8" t="n">
-        <v>75.2</v>
+        <v>237.78</v>
       </c>
       <c r="E8" t="n">
-        <v>24.66</v>
+        <v>17.772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>88.28</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>26.832</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75.2</v>
+        <v>73.8</v>
       </c>
       <c r="D10" t="n">
-        <v>155.9</v>
+        <v>143.58</v>
       </c>
       <c r="E10" t="n">
-        <v>21.18</v>
+        <v>22.412</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>59.36</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>112.96</v>
+        <v>47.56</v>
       </c>
       <c r="E11" t="n">
-        <v>22.984</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>88.28</v>
+        <v>237.78</v>
       </c>
       <c r="D12" t="n">
-        <v>153.38</v>
+        <v>327.96</v>
       </c>
       <c r="E12" t="n">
-        <v>23.452</v>
+        <v>14.824</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>67.45999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="D13" t="n">
-        <v>123.04</v>
+        <v>126.18</v>
       </c>
       <c r="E13" t="n">
-        <v>22.476</v>
+        <v>21.692</v>
       </c>
     </row>
     <row r="14">
@@ -694,207 +694,207 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>123.04</v>
+        <v>47.56</v>
       </c>
       <c r="D14" t="n">
-        <v>188.34</v>
+        <v>93.06</v>
       </c>
       <c r="E14" t="n">
-        <v>18.056</v>
+        <v>22.524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45.72</v>
+        <v>143.58</v>
       </c>
       <c r="D15" t="n">
-        <v>94.59999999999999</v>
+        <v>181.28</v>
       </c>
       <c r="E15" t="n">
-        <v>23.84</v>
+        <v>19.772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>180.84</v>
+        <v>45.72</v>
       </c>
       <c r="D16" t="n">
-        <v>231.34</v>
+        <v>104.76</v>
       </c>
       <c r="E16" t="n">
-        <v>14.416</v>
+        <v>21.864</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>188.34</v>
+        <v>104.76</v>
       </c>
       <c r="D17" t="n">
-        <v>238.74</v>
+        <v>147.88</v>
       </c>
       <c r="E17" t="n">
-        <v>14.636</v>
+        <v>18.692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>94.59999999999999</v>
+        <v>327.96</v>
       </c>
       <c r="D18" t="n">
-        <v>144.6</v>
+        <v>374.16</v>
       </c>
       <c r="E18" t="n">
-        <v>20.48</v>
+        <v>11.344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>112.96</v>
+        <v>181.28</v>
       </c>
       <c r="D19" t="n">
-        <v>186.88</v>
+        <v>243.78</v>
       </c>
       <c r="E19" t="n">
-        <v>19.232</v>
+        <v>16.652</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>231.34</v>
+        <v>147.88</v>
       </c>
       <c r="D20" t="n">
-        <v>316.96</v>
+        <v>241.2</v>
       </c>
       <c r="E20" t="n">
-        <v>9.944000000000001</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>144.6</v>
+        <v>241.2</v>
       </c>
       <c r="D21" t="n">
-        <v>221.16</v>
+        <v>312.3</v>
       </c>
       <c r="E21" t="n">
-        <v>16.424</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>316.96</v>
+        <v>93.06</v>
       </c>
       <c r="D22" t="n">
-        <v>364.36</v>
+        <v>170.06</v>
       </c>
       <c r="E22" t="n">
-        <v>6.824</v>
+        <v>18.924</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>153.38</v>
+        <v>67</v>
       </c>
       <c r="D23" t="n">
-        <v>218.06</v>
+        <v>114.4</v>
       </c>
       <c r="E23" t="n">
-        <v>19.604</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>218.06</v>
+        <v>114.4</v>
       </c>
       <c r="D24" t="n">
-        <v>257.92</v>
+        <v>163.56</v>
       </c>
       <c r="E24" t="n">
-        <v>16.748</v>
+        <v>20.084</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>155.9</v>
+        <v>163.56</v>
       </c>
       <c r="D25" t="n">
-        <v>184.7</v>
+        <v>217.58</v>
       </c>
       <c r="E25" t="n">
-        <v>18.94</v>
+        <v>17.312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>238.74</v>
+        <v>243.78</v>
       </c>
       <c r="D26" t="n">
-        <v>314.36</v>
+        <v>303.36</v>
       </c>
       <c r="E26" t="n">
-        <v>11.204</v>
+        <v>12.804</v>
       </c>
     </row>
     <row r="27">
@@ -941,112 +941,112 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>221.16</v>
+        <v>126.18</v>
       </c>
       <c r="D27" t="n">
-        <v>310.08</v>
+        <v>179.16</v>
       </c>
       <c r="E27" t="n">
-        <v>12.112</v>
+        <v>18.524</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>257.92</v>
+        <v>179.16</v>
       </c>
       <c r="D28" t="n">
-        <v>324.12</v>
+        <v>241.22</v>
       </c>
       <c r="E28" t="n">
-        <v>13.228</v>
+        <v>13.948</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>310.08</v>
+        <v>170.06</v>
       </c>
       <c r="D29" t="n">
-        <v>365.5</v>
+        <v>240.46</v>
       </c>
       <c r="E29" t="n">
-        <v>9.199999999999999</v>
+        <v>14.504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>314.36</v>
+        <v>241.22</v>
       </c>
       <c r="D30" t="n">
-        <v>394.06</v>
+        <v>318.32</v>
       </c>
       <c r="E30" t="n">
-        <v>7.824</v>
+        <v>8.848000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>365.5</v>
+        <v>374.16</v>
       </c>
       <c r="D31" t="n">
-        <v>421.38</v>
+        <v>442.96</v>
       </c>
       <c r="E31" t="n">
-        <v>6.232</v>
+        <v>8.044</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>324.12</v>
+        <v>217.58</v>
       </c>
       <c r="D32" t="n">
-        <v>377.94</v>
+        <v>271.76</v>
       </c>
       <c r="E32" t="n">
-        <v>10.456</v>
+        <v>15.024</v>
       </c>
     </row>
     <row r="33">
@@ -1055,55 +1055,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>377.94</v>
+        <v>303.36</v>
       </c>
       <c r="D33" t="n">
-        <v>415.64</v>
+        <v>341.5</v>
       </c>
       <c r="E33" t="n">
-        <v>7.816</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>184.7</v>
+        <v>312.3</v>
       </c>
       <c r="D34" t="n">
-        <v>236.9</v>
+        <v>372</v>
       </c>
       <c r="E34" t="n">
-        <v>15.34</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>236.9</v>
+        <v>341.5</v>
       </c>
       <c r="D35" t="n">
-        <v>294.74</v>
+        <v>415.96</v>
       </c>
       <c r="E35" t="n">
-        <v>12.656</v>
+        <v>7.264</v>
       </c>
     </row>
     <row r="36">
@@ -1112,112 +1112,112 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>421.38</v>
+        <v>318.32</v>
       </c>
       <c r="D36" t="n">
-        <v>476.16</v>
+        <v>392.82</v>
       </c>
       <c r="E36" t="n">
-        <v>2.384</v>
+        <v>5.468</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>415.64</v>
+        <v>240.46</v>
       </c>
       <c r="D37" t="n">
-        <v>478.14</v>
+        <v>277.68</v>
       </c>
       <c r="E37" t="n">
-        <v>4.696</v>
+        <v>11.912</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>394.06</v>
+        <v>271.76</v>
       </c>
       <c r="D38" t="n">
-        <v>469.56</v>
+        <v>322.28</v>
       </c>
       <c r="E38" t="n">
-        <v>4.344</v>
+        <v>11.592</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>186.88</v>
+        <v>392.82</v>
       </c>
       <c r="D39" t="n">
-        <v>238.8</v>
+        <v>448.14</v>
       </c>
       <c r="E39" t="n">
-        <v>16.64</v>
+        <v>2.556</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>364.36</v>
+        <v>372</v>
       </c>
       <c r="D40" t="n">
-        <v>416.52</v>
+        <v>431.32</v>
       </c>
       <c r="E40" t="n">
-        <v>4.228</v>
+        <v>3.788</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>238.8</v>
+        <v>322.28</v>
       </c>
       <c r="D41" t="n">
-        <v>301.72</v>
+        <v>382.18</v>
       </c>
       <c r="E41" t="n">
-        <v>13.468</v>
+        <v>8.212</v>
       </c>
     </row>
   </sheetData>
